--- a/src/main/resources/hr.xlsx
+++ b/src/main/resources/hr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Desktop\Automatic-Email-Sender-Hr\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62012BDE-3C52-451E-8CF8-F4047AAE26BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B192B387-A021-4743-A7D3-7B0E560F1F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SNo</t>
   </si>
@@ -37,3203 +37,23 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Associate Director HR</t>
-  </si>
-  <si>
-    <t>Head HR</t>
-  </si>
-  <si>
-    <t>Akhil Jogiparthi</t>
-  </si>
-  <si>
-    <t>akhil@ibhubs.co</t>
-  </si>
-  <si>
-    <t>Vice President - Talent Accelerator</t>
-  </si>
-  <si>
-    <t>iB Hubs</t>
-  </si>
-  <si>
-    <t>Akhila Chandan</t>
-  </si>
-  <si>
-    <t>akhila@estuate.com</t>
-  </si>
-  <si>
     <t>Associate Vice President Human Resources</t>
   </si>
   <si>
-    <t>Estuate,</t>
+    <t>Chandu</t>
   </si>
   <si>
-    <t>Akram Mohammad</t>
+    <t>chanduraparthi1@gmail.com</t>
   </si>
   <si>
-    <t>akram.mohammad@colruytgroup.com</t>
-  </si>
-  <si>
-    <t>Deputy Head Head HR</t>
-  </si>
-  <si>
-    <t>Colruyt India</t>
-  </si>
-  <si>
-    <t>Akriti</t>
-  </si>
-  <si>
-    <t>akriti@elsner.in</t>
-  </si>
-  <si>
-    <t>HR-Head</t>
-  </si>
-  <si>
-    <t>Elsner Technologies</t>
-  </si>
-  <si>
-    <t>Akshata Bhandare</t>
-  </si>
-  <si>
-    <t>akshata.bhandare@windmill.ch</t>
-  </si>
-  <si>
-    <t>HR &amp; Location Head, India</t>
-  </si>
-  <si>
-    <t>Windmill</t>
-  </si>
-  <si>
-    <t>Albino Mascarenhas</t>
-  </si>
-  <si>
-    <t>albino@pixis.ai</t>
-  </si>
-  <si>
-    <t>Head - Human Resources Global</t>
-  </si>
-  <si>
-    <t>Pyxis One</t>
-  </si>
-  <si>
-    <t>Allwyn Richard</t>
-  </si>
-  <si>
-    <t>allwyn.r@qbrainx.com</t>
-  </si>
-  <si>
-    <t>Head of Human Resources</t>
-  </si>
-  <si>
-    <t>QBrainX Inc</t>
-  </si>
-  <si>
-    <t>Alok Baghel</t>
-  </si>
-  <si>
-    <t>alok.singh@recro.io</t>
-  </si>
-  <si>
-    <t>Head Of Talent Management</t>
-  </si>
-  <si>
-    <t>Recro</t>
-  </si>
-  <si>
-    <t>Alok Kumar</t>
-  </si>
-  <si>
-    <t>alok.kumar@vfislk.com</t>
-  </si>
-  <si>
-    <t>Operations Leader and Head Transitions, L&amp;D</t>
-  </si>
-  <si>
-    <t>VFI SLK</t>
-  </si>
-  <si>
-    <t>Alwyn Barretto</t>
-  </si>
-  <si>
-    <t>alwyn.barretto@infrasofttech.com</t>
-  </si>
-  <si>
-    <t>Head Recruitments</t>
-  </si>
-  <si>
-    <t>Infrasoft Technologies</t>
-  </si>
-  <si>
-    <t>Aman Khan</t>
-  </si>
-  <si>
-    <t>aman.khan@areteanstech.com</t>
-  </si>
-  <si>
-    <t>Vice President Human Resources</t>
-  </si>
-  <si>
-    <t>Areteans</t>
-  </si>
-  <si>
-    <t>Amandeep Kaur</t>
-  </si>
-  <si>
-    <t>amandeep.k@antiersolutions.com</t>
-  </si>
-  <si>
-    <t>Sr. HR Executive (Technical Recruitment Head)</t>
-  </si>
-  <si>
-    <t>Antier Solutions</t>
-  </si>
-  <si>
-    <t>Amar Sinha</t>
-  </si>
-  <si>
-    <t>amar.sinha@nitorinfotech.com</t>
-  </si>
-  <si>
-    <t>Director Talent Acquisition (People Function)</t>
-  </si>
-  <si>
-    <t>Nitor Infotech</t>
-  </si>
-  <si>
-    <t>Ambrish Kanungo</t>
-  </si>
-  <si>
-    <t>ambrish.kanungo@beyondkey.com</t>
-  </si>
-  <si>
-    <t>Head of HR</t>
-  </si>
-  <si>
-    <t>Beyond Key</t>
-  </si>
-  <si>
-    <t>Amiit Avaasthi</t>
-  </si>
-  <si>
-    <t>amiit.avaasthi@altudo.co</t>
-  </si>
-  <si>
-    <t>Chief People Officer</t>
-  </si>
-  <si>
-    <t>Altudo</t>
-  </si>
-  <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>amit.malhotra@wundermanthompson.com</t>
-  </si>
-  <si>
-    <t>Wunderman Thompson MSC</t>
-  </si>
-  <si>
-    <t>Amit Kataria</t>
-  </si>
-  <si>
-    <t>amit@hanu.com</t>
-  </si>
-  <si>
-    <t>Chief Human Resources Officer</t>
-  </si>
-  <si>
-    <t>Hanu Software</t>
-  </si>
-  <si>
-    <t>Amit Prayagi</t>
-  </si>
-  <si>
-    <t>amit.prayagi@claimgenius.com</t>
-  </si>
-  <si>
-    <t>Head Of Recruitment &amp; HR Operation</t>
-  </si>
-  <si>
-    <t>Claim Genius</t>
-  </si>
-  <si>
-    <t>Amit Ranjan</t>
-  </si>
-  <si>
-    <t>amit.ranjan@scikey.ai</t>
-  </si>
-  <si>
-    <t>Associate Director- Talent Solutions</t>
-  </si>
-  <si>
-    <t>SCIKEY</t>
-  </si>
-  <si>
-    <t>Amit Sahoo</t>
-  </si>
-  <si>
-    <t>amit.sahoo@areteanstech.com</t>
-  </si>
-  <si>
-    <t>Vice President and Global Head - Human Resources</t>
-  </si>
-  <si>
-    <t>Amita Shital</t>
-  </si>
-  <si>
-    <t>ashital@svam.com</t>
-  </si>
-  <si>
-    <t>SVAM International</t>
-  </si>
-  <si>
-    <t>Amitesh Verma</t>
-  </si>
-  <si>
-    <t>amitesh.verma@cheersin.com</t>
-  </si>
-  <si>
-    <t>Associate Director, Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Cheers Interactive</t>
-  </si>
-  <si>
-    <t>Amitha K</t>
-  </si>
-  <si>
-    <t>amitha.k@secure-24.com</t>
-  </si>
-  <si>
-    <t>Director- HR</t>
-  </si>
-  <si>
-    <t>Secure-24</t>
-  </si>
-  <si>
-    <t>Amlan Nag</t>
-  </si>
-  <si>
-    <t>amlan.nag@mjunction.in</t>
-  </si>
-  <si>
-    <t>General Manager &amp; Head HR</t>
-  </si>
-  <si>
-    <t>mjunction services</t>
-  </si>
-  <si>
-    <t>Amresh Mehra</t>
-  </si>
-  <si>
-    <t>amreshm@zendrive.com</t>
-  </si>
-  <si>
-    <t>VP - People &amp; Culture</t>
-  </si>
-  <si>
-    <t>Zendrive</t>
-  </si>
-  <si>
-    <t>Amrita</t>
-  </si>
-  <si>
-    <t>akishore@dimagi.com</t>
-  </si>
-  <si>
-    <t>Director of People Operations, India</t>
-  </si>
-  <si>
-    <t>Dimagi</t>
-  </si>
-  <si>
-    <t>Amrita Cheema</t>
-  </si>
-  <si>
-    <t>amrita.cheema@loconav.com</t>
-  </si>
-  <si>
-    <t>Head HR - Global SaaS</t>
-  </si>
-  <si>
-    <t>LocoNav</t>
-  </si>
-  <si>
-    <t>Amrita Singh</t>
-  </si>
-  <si>
-    <t>amrita.singh@cogentinfo.com</t>
-  </si>
-  <si>
-    <t>Director - Recruitment &amp; Delivery (US Staffing)</t>
-  </si>
-  <si>
-    <t>COGENT Infotech</t>
-  </si>
-  <si>
-    <t>amrita.singh@itbd.net</t>
-  </si>
-  <si>
-    <t>Head HR (India)</t>
-  </si>
-  <si>
-    <t>IT BY DESIGN</t>
-  </si>
-  <si>
-    <t>Amrita Tripathi</t>
-  </si>
-  <si>
-    <t>amrita@sdnaglobal.com</t>
-  </si>
-  <si>
-    <t>VP - India, ME and APAC HR</t>
-  </si>
-  <si>
-    <t>Stanley David and Associates</t>
-  </si>
-  <si>
-    <t>Amritesh Shukla</t>
-  </si>
-  <si>
-    <t>amritesh.shukla@mygate.com</t>
-  </si>
-  <si>
-    <t>Head Of Human Resources</t>
-  </si>
-  <si>
-    <t>MyGate</t>
-  </si>
-  <si>
-    <t>Amruta Urkude</t>
-  </si>
-  <si>
-    <t>amruta@greatplaceitservices.com</t>
-  </si>
-  <si>
-    <t>HR Head (Generalist)</t>
-  </si>
-  <si>
-    <t>Great Place IT Services</t>
-  </si>
-  <si>
-    <t>Amulya</t>
-  </si>
-  <si>
-    <t>amulya.ms@utthunga.com</t>
-  </si>
-  <si>
-    <t>Director HR</t>
-  </si>
-  <si>
-    <t>Utthunga</t>
-  </si>
-  <si>
-    <t>Anand Christopher</t>
-  </si>
-  <si>
-    <t>anand.christopher@grassrootsbpo.com</t>
-  </si>
-  <si>
-    <t>Grassroots</t>
-  </si>
-  <si>
-    <t>Anand E</t>
-  </si>
-  <si>
-    <t>anand.e@increff.com</t>
-  </si>
-  <si>
-    <t>Increff</t>
-  </si>
-  <si>
-    <t>Anand K</t>
-  </si>
-  <si>
-    <t>ak@8kmiles.com</t>
-  </si>
-  <si>
-    <t>SecureKloud Technologies</t>
-  </si>
-  <si>
-    <t>Anand Khot</t>
-  </si>
-  <si>
-    <t>anandk@pharmarack.com</t>
-  </si>
-  <si>
-    <t>Pharmarack</t>
-  </si>
-  <si>
-    <t>Anand Rajendran</t>
-  </si>
-  <si>
-    <t>anand.r@whatarage.com</t>
-  </si>
-  <si>
-    <t>Director - HR</t>
-  </si>
-  <si>
-    <t>ADK Rage</t>
-  </si>
-  <si>
-    <t>Anand Sasidharan</t>
-  </si>
-  <si>
-    <t>anand@hubilo.com</t>
-  </si>
-  <si>
-    <t>Head of Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Hubilo</t>
-  </si>
-  <si>
-    <t>Anand Sl</t>
-  </si>
-  <si>
-    <t>anand@auzmor.com</t>
-  </si>
-  <si>
-    <t>HR Director / Operations Head (India)</t>
-  </si>
-  <si>
-    <t>Auzmor</t>
-  </si>
-  <si>
-    <t>Anand Soni</t>
-  </si>
-  <si>
-    <t>anand@capsitech.com</t>
-  </si>
-  <si>
-    <t>Talent Acquisition Head</t>
-  </si>
-  <si>
-    <t>Capsitech</t>
-  </si>
-  <si>
-    <t>Anand Thiagarajan</t>
-  </si>
-  <si>
-    <t>athiagarajan@inniveinc.com</t>
-  </si>
-  <si>
-    <t>Vice President - Human Resources</t>
-  </si>
-  <si>
-    <t>Innive Inc</t>
-  </si>
-  <si>
-    <t>Anandhi Srinivasan</t>
-  </si>
-  <si>
-    <t>anandhi.s@dsmsoft.com</t>
-  </si>
-  <si>
-    <t>Associate Vice President - Human Resources</t>
-  </si>
-  <si>
-    <t>DSM SOFT</t>
-  </si>
-  <si>
-    <t>Ananthram Iyer</t>
-  </si>
-  <si>
-    <t>ananthram.iyer@customercentria.com</t>
-  </si>
-  <si>
-    <t>Vice President HR</t>
-  </si>
-  <si>
-    <t>Customer Centria</t>
-  </si>
-  <si>
-    <t>Anchal Rastogi</t>
-  </si>
-  <si>
-    <t>anrastogi@enhanceit.com</t>
-  </si>
-  <si>
-    <t>AVP Recruitments</t>
-  </si>
-  <si>
-    <t>Enhance IT</t>
-  </si>
-  <si>
-    <t>Anchan Arasinaguppe</t>
-  </si>
-  <si>
-    <t>aarasina@teksystems.com</t>
-  </si>
-  <si>
-    <t>Associate Director Talent Acquisition</t>
-  </si>
-  <si>
-    <t>TEKsystems Global Services in India</t>
-  </si>
-  <si>
-    <t>Angel Mathew</t>
-  </si>
-  <si>
-    <t>angel.mathew@delphix.com</t>
-  </si>
-  <si>
-    <t>Human Resources Director</t>
-  </si>
-  <si>
-    <t>Delphix</t>
-  </si>
-  <si>
-    <t>Anil Chandra</t>
-  </si>
-  <si>
-    <t>anil.chandra@thoughtspot.com</t>
-  </si>
-  <si>
-    <t>Senior Director, Talent Acquisition</t>
-  </si>
-  <si>
-    <t>ThoughtSpot</t>
-  </si>
-  <si>
-    <t>Anil K</t>
-  </si>
-  <si>
-    <t>anil.k@corestack.io</t>
-  </si>
-  <si>
-    <t>CoreStack</t>
-  </si>
-  <si>
-    <t>Anil Moturi</t>
-  </si>
-  <si>
-    <t>anil.moturi@solugenix.com</t>
-  </si>
-  <si>
-    <t>Director Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Solugenix</t>
-  </si>
-  <si>
-    <t>Anil Pereira</t>
-  </si>
-  <si>
-    <t>anil.pereira@visiblealpha.com</t>
-  </si>
-  <si>
-    <t>Senior Director Human Resources</t>
-  </si>
-  <si>
-    <t>Visible Alpha</t>
-  </si>
-  <si>
-    <t>Anil Ramachandran</t>
-  </si>
-  <si>
-    <t>anil.kumar@flytxt.com</t>
-  </si>
-  <si>
-    <t>Head - Global HR</t>
-  </si>
-  <si>
-    <t>Flytxt</t>
-  </si>
-  <si>
-    <t>Anil Tomar</t>
-  </si>
-  <si>
-    <t>anil.tomar@fdsindia.co.in</t>
-  </si>
-  <si>
-    <t>HR Head</t>
-  </si>
-  <si>
-    <t>Fourth Dimension Solutions</t>
-  </si>
-  <si>
-    <t>Animesh Kumar</t>
-  </si>
-  <si>
-    <t>animesh.kumar@novopay.in</t>
-  </si>
-  <si>
-    <t>Head HR, Novopay</t>
-  </si>
-  <si>
-    <t>Novopay</t>
-  </si>
-  <si>
-    <t>Anindita Ranjan</t>
-  </si>
-  <si>
-    <t>anindita.ranjan@3ds.com</t>
-  </si>
-  <si>
-    <t>Dassault Systems</t>
-  </si>
-  <si>
-    <t>Anirban Chakravorty</t>
-  </si>
-  <si>
-    <t>anirban.chakravorty@nttdata.com</t>
-  </si>
-  <si>
-    <t>Senior Director &amp; Regional Head - Human Resources</t>
-  </si>
-  <si>
-    <t>NTT DATA</t>
-  </si>
-  <si>
-    <t>Anirban Ghosh</t>
-  </si>
-  <si>
-    <t>aghosh@trimaxamericas.com</t>
-  </si>
-  <si>
-    <t>Head - Human Resources Management</t>
-  </si>
-  <si>
-    <t>Data Glove</t>
-  </si>
-  <si>
-    <t>Anirudhan Vasudevan</t>
-  </si>
-  <si>
-    <t>anirudhan.vasudevan@replicon.com</t>
-  </si>
-  <si>
-    <t>Replicon</t>
-  </si>
-  <si>
-    <t>Anish Ahmed</t>
-  </si>
-  <si>
-    <t>anish.ahmed@vaave.com</t>
-  </si>
-  <si>
-    <t>Head-13x Talent</t>
-  </si>
-  <si>
-    <t>Vaave</t>
-  </si>
-  <si>
-    <t>Anish Raj</t>
-  </si>
-  <si>
-    <t>anish.raj@sentieo.com</t>
-  </si>
-  <si>
-    <t>Sentieo</t>
-  </si>
-  <si>
-    <t>Anita Mourya</t>
-  </si>
-  <si>
-    <t>anita.mourya@capricot.com</t>
-  </si>
-  <si>
-    <t>PS to Chairman / Director - HR</t>
-  </si>
-  <si>
-    <t>Capricot Technologies</t>
-  </si>
-  <si>
-    <t>Anita Noronha</t>
-  </si>
-  <si>
-    <t>anoronha@shorewise.com</t>
-  </si>
-  <si>
-    <t>Global Head Human Resources</t>
-  </si>
-  <si>
-    <t>ShoreWise Consulting</t>
-  </si>
-  <si>
-    <t>Anita Sidhwani</t>
-  </si>
-  <si>
-    <t>asidhwani@cleo.com</t>
-  </si>
-  <si>
-    <t>Cleo</t>
-  </si>
-  <si>
-    <t>Anita Yadav</t>
-  </si>
-  <si>
-    <t>anita@appventurez.com</t>
-  </si>
-  <si>
-    <t>Global HR Head</t>
-  </si>
-  <si>
-    <t>Appventurez</t>
-  </si>
-  <si>
-    <t>Anitha Davis</t>
-  </si>
-  <si>
-    <t>anitha.davis@incture.com</t>
-  </si>
-  <si>
-    <t>Associate Director - Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Incture</t>
-  </si>
-  <si>
-    <t>Anitha Prabhakar</t>
-  </si>
-  <si>
-    <t>anitha.prabhakar@pramati.com</t>
-  </si>
-  <si>
-    <t>HR Director</t>
-  </si>
-  <si>
-    <t>Pramati Technologies</t>
-  </si>
-  <si>
-    <t>Anjali</t>
-  </si>
-  <si>
-    <t>anjali@knackforge.com</t>
-  </si>
-  <si>
-    <t>Vice President Human Resources &amp; Operations</t>
-  </si>
-  <si>
-    <t>KnackForge</t>
-  </si>
-  <si>
-    <t>Anjali Ghadge</t>
-  </si>
-  <si>
-    <t>anjalig@mangoapps.com</t>
-  </si>
-  <si>
-    <t>VP - HR &amp; Operations I We're Hiring!</t>
-  </si>
-  <si>
-    <t>MangoApps</t>
-  </si>
-  <si>
-    <t>Anjali Patil</t>
-  </si>
-  <si>
-    <t>anjali.patil@workindia.in</t>
-  </si>
-  <si>
-    <t>WorkIndia</t>
-  </si>
-  <si>
-    <t>Anjali Sharma</t>
-  </si>
-  <si>
-    <t>anjali.sharma@fulcrumdigital.com</t>
-  </si>
-  <si>
-    <t>Director, Global head of L&amp;D</t>
-  </si>
-  <si>
-    <t>Fulcrum Digital Inc</t>
-  </si>
-  <si>
-    <t>Anjan Bose</t>
-  </si>
-  <si>
-    <t>anjan.bose@hpl.co.in</t>
-  </si>
-  <si>
-    <t>CIO &amp; Head of HR</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>Anjani Salian</t>
-  </si>
-  <si>
-    <t>anjani.salian@in.nbssap.com</t>
-  </si>
-  <si>
-    <t>Head - Talent Acquisition &amp; Talent Management</t>
-  </si>
-  <si>
-    <t>Net Business Solutions</t>
-  </si>
-  <si>
-    <t>Anju Tyagi</t>
-  </si>
-  <si>
-    <t>anju.tyagi@bpoconvergence.com</t>
-  </si>
-  <si>
-    <t>BPO Convergence</t>
-  </si>
-  <si>
-    <t>Ankit Shah</t>
-  </si>
-  <si>
-    <t>ankit@compumatrice.com</t>
-  </si>
-  <si>
-    <t>Head of HR &amp; Operations</t>
-  </si>
-  <si>
-    <t>CompuMatrice</t>
-  </si>
-  <si>
-    <t>Ankit Sharma</t>
-  </si>
-  <si>
-    <t>ankit.sharma@a1technology.com</t>
-  </si>
-  <si>
-    <t>Head Of Recruitment &amp; HR</t>
-  </si>
-  <si>
-    <t>A-1 Technology</t>
-  </si>
-  <si>
-    <t>Ankit Tomar</t>
-  </si>
-  <si>
-    <t>ankit.tomar@rategain.com</t>
-  </si>
-  <si>
-    <t>Associate Director HR Transformation</t>
-  </si>
-  <si>
-    <t>RateGain</t>
-  </si>
-  <si>
-    <t>Ankita</t>
-  </si>
-  <si>
-    <t>ankita@zenwork.com</t>
-  </si>
-  <si>
-    <t>Vice President HR &amp; Operations</t>
-  </si>
-  <si>
-    <t>Zenwork</t>
-  </si>
-  <si>
-    <t>Ankita Rajrishi</t>
-  </si>
-  <si>
-    <t>ankita.rajrishi@condecosoftware.com</t>
-  </si>
-  <si>
-    <t>Head of Shared Services - Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Condeco</t>
-  </si>
-  <si>
-    <t>Ankita Sinha</t>
-  </si>
-  <si>
-    <t>ankita.sinha@mtxb2b.com</t>
-  </si>
-  <si>
-    <t>MTX Group</t>
-  </si>
-  <si>
-    <t>Ankur Beri</t>
-  </si>
-  <si>
-    <t>ankur.beri@niit-tech.com</t>
-  </si>
-  <si>
-    <t>Group Head Human Resources</t>
-  </si>
-  <si>
-    <t>NIIT Technologies</t>
-  </si>
-  <si>
-    <t>Anna Andrews</t>
-  </si>
-  <si>
-    <t>annaa@smartek21.com</t>
-  </si>
-  <si>
-    <t>Head-Human Resources (India)</t>
-  </si>
-  <si>
-    <t>SmarTek21</t>
-  </si>
-  <si>
-    <t>Anna Mathunny</t>
-  </si>
-  <si>
-    <t>anna@transactglobal.com</t>
-  </si>
-  <si>
-    <t>Transact Global</t>
-  </si>
-  <si>
-    <t>Annapurna A</t>
-  </si>
-  <si>
-    <t>annapurna.a@fime.com</t>
-  </si>
-  <si>
-    <t>Head of HR &amp; Admn</t>
-  </si>
-  <si>
-    <t>FIME</t>
-  </si>
-  <si>
-    <t>Annie Manoj</t>
-  </si>
-  <si>
-    <t>annie.manoj@grasko.com</t>
-  </si>
-  <si>
-    <t>Director - Human Resources</t>
-  </si>
-  <si>
-    <t>Grasko Solutions</t>
-  </si>
-  <si>
-    <t>Anoob Abraham</t>
-  </si>
-  <si>
-    <t>anoob.abraham@arcadia.com</t>
-  </si>
-  <si>
-    <t>Arcadia</t>
-  </si>
-  <si>
-    <t>Anshika Khaitan</t>
-  </si>
-  <si>
-    <t>anshika.khaitan@getvymo.com</t>
-  </si>
-  <si>
-    <t>Director-People &amp; Culture</t>
-  </si>
-  <si>
-    <t>Vymo</t>
-  </si>
-  <si>
-    <t>Anshu Anand</t>
-  </si>
-  <si>
-    <t>anshu.anand@absolutdata.com</t>
-  </si>
-  <si>
-    <t>Absolutdata Analytics</t>
-  </si>
-  <si>
-    <t>Ansuman Sahu</t>
-  </si>
-  <si>
-    <t>ansumans@mindfiresolutions.com</t>
-  </si>
-  <si>
-    <t>Head of HR / Staffing</t>
-  </si>
-  <si>
-    <t>Mindfire Solutions</t>
-  </si>
-  <si>
-    <t>Anto Faria</t>
-  </si>
-  <si>
-    <t>anto.faria@urbanladder.com</t>
-  </si>
-  <si>
-    <t>Head L&amp;D Operation and Fulfillment</t>
-  </si>
-  <si>
-    <t>Urban Ladder</t>
-  </si>
-  <si>
-    <t>Anuj Agarwal</t>
-  </si>
-  <si>
-    <t>anuj@deskera.com</t>
-  </si>
-  <si>
-    <t>VP, Corporate Operations &amp; HR</t>
-  </si>
-  <si>
-    <t>Deskera</t>
-  </si>
-  <si>
-    <t>Anuja Sivaram</t>
-  </si>
-  <si>
-    <t>anuja@codenation.co.in</t>
-  </si>
-  <si>
-    <t>CHRO &amp; COO</t>
-  </si>
-  <si>
-    <t>Trilogy Innovations</t>
-  </si>
-  <si>
-    <t>Anupam Jauhari</t>
-  </si>
-  <si>
-    <t>anupam.j@gsl.in</t>
-  </si>
-  <si>
-    <t>Group CHRO</t>
-  </si>
-  <si>
-    <t>Ginesys</t>
-  </si>
-  <si>
-    <t>Anupam Srivastava</t>
-  </si>
-  <si>
-    <t>anupam.srivastava@reltio.com</t>
-  </si>
-  <si>
-    <t>Reltio</t>
-  </si>
-  <si>
-    <t>Anupama Dasgupta</t>
-  </si>
-  <si>
-    <t>anupamadg@erevmax.com</t>
-  </si>
-  <si>
-    <t>SVP Human Resources</t>
-  </si>
-  <si>
-    <t>eRevMax</t>
-  </si>
-  <si>
-    <t>Anupriya Gandhi</t>
-  </si>
-  <si>
-    <t>anupriya.gandhi@juliacomputing.com</t>
-  </si>
-  <si>
-    <t>Global Director People Ops</t>
-  </si>
-  <si>
-    <t>Julia Computing</t>
-  </si>
-  <si>
-    <t>Anurag Rana</t>
-  </si>
-  <si>
-    <t>anurag.rana@sirionlabs.com</t>
-  </si>
-  <si>
-    <t>SirionLabs</t>
-  </si>
-  <si>
-    <t>Anurag Shrivastava</t>
-  </si>
-  <si>
-    <t>anurags@talisma.com</t>
-  </si>
-  <si>
-    <t>Talisma</t>
-  </si>
-  <si>
-    <t>Anurag Verma</t>
-  </si>
-  <si>
-    <t>anurag@uniphore.com</t>
-  </si>
-  <si>
-    <t>Uniphore</t>
-  </si>
-  <si>
-    <t>Anusha Jayachandran</t>
-  </si>
-  <si>
-    <t>anusha@srswebsolutions.com</t>
-  </si>
-  <si>
-    <t>Head - Human Resources Operations</t>
-  </si>
-  <si>
-    <t>SRS Web Solutions</t>
-  </si>
-  <si>
-    <t>Anusha Kishore</t>
-  </si>
-  <si>
-    <t>anusha.kishore@loco.gg</t>
-  </si>
-  <si>
-    <t>Assistant Vice President Human Resources</t>
-  </si>
-  <si>
-    <t>Loco</t>
-  </si>
-  <si>
-    <t>Aparna Gunjikar</t>
-  </si>
-  <si>
-    <t>aparna.gunjikar@softnautics.com</t>
-  </si>
-  <si>
-    <t>Softnautics</t>
-  </si>
-  <si>
-    <t>Aparna Srikanth</t>
-  </si>
-  <si>
-    <t>aparna.srikanth@appsian.com</t>
-  </si>
-  <si>
-    <t>Head, Human Resources - India</t>
-  </si>
-  <si>
-    <t>Pathlock</t>
-  </si>
-  <si>
-    <t>Aradhana Gupta</t>
-  </si>
-  <si>
-    <t>aradhana@safexpay.com</t>
-  </si>
-  <si>
-    <t>SafexPay</t>
-  </si>
-  <si>
-    <t>Arathi</t>
-  </si>
-  <si>
-    <t>arathi.gs@vyomlabs.com</t>
-  </si>
-  <si>
-    <t>AVP HR</t>
-  </si>
-  <si>
-    <t>Vyom Labs</t>
-  </si>
-  <si>
-    <t>Arathi Prabhu</t>
-  </si>
-  <si>
-    <t>arathi.prabhu@altruistahealth.com</t>
-  </si>
-  <si>
-    <t>Director - Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Altruista Health</t>
-  </si>
-  <si>
-    <t>Arathi Rajeswari</t>
-  </si>
-  <si>
-    <t>arathi@suntecgroup.com</t>
-  </si>
-  <si>
-    <t>AVP, Head of Talent Advancement and Excellence</t>
-  </si>
-  <si>
-    <t>SunTec Business Solutions</t>
-  </si>
-  <si>
-    <t>Aravind Chandrasekar</t>
-  </si>
-  <si>
-    <t>aravind.chandrasekar@tigerspike.com</t>
-  </si>
-  <si>
-    <t>Concentrix Tigerspike</t>
-  </si>
-  <si>
-    <t>Aravind Warrier</t>
-  </si>
-  <si>
-    <t>aravind.warrier@rapidvaluesolutions.com</t>
-  </si>
-  <si>
-    <t>RapidValue</t>
-  </si>
-  <si>
-    <t>Archana Anand</t>
-  </si>
-  <si>
-    <t>archana@aufait.in</t>
-  </si>
-  <si>
-    <t>Aufait Technologies</t>
-  </si>
-  <si>
-    <t>Archana Kp</t>
-  </si>
-  <si>
-    <t>archana.kp@kilowott.com</t>
-  </si>
-  <si>
-    <t>Kilowott</t>
-  </si>
-  <si>
-    <t>Archana Kunde</t>
-  </si>
-  <si>
-    <t>archana@quinbay.com</t>
-  </si>
-  <si>
-    <t>Quinbay</t>
-  </si>
-  <si>
-    <t>Archana Manne</t>
-  </si>
-  <si>
-    <t>archana.manne@locuz.com</t>
-  </si>
-  <si>
-    <t>Locuz</t>
-  </si>
-  <si>
-    <t>Archana Sarda</t>
-  </si>
-  <si>
-    <t>archana.sarda@microlise.com</t>
-  </si>
-  <si>
-    <t>Microlise</t>
-  </si>
-  <si>
-    <t>Archana Shinde</t>
-  </si>
-  <si>
-    <t>archana.shinde@cognologix.com</t>
-  </si>
-  <si>
-    <t>Head Human Resources Department</t>
-  </si>
-  <si>
-    <t>Cognologix Technologies</t>
-  </si>
-  <si>
-    <t>Arif Memon</t>
-  </si>
-  <si>
-    <t>arif.memon@abzooba.com</t>
-  </si>
-  <si>
-    <t>Associate Vice President Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Abzooba</t>
-  </si>
-  <si>
-    <t>Arindam Kar</t>
-  </si>
-  <si>
-    <t>arindam.kar@yodlee.com</t>
-  </si>
-  <si>
-    <t>Head-Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Envestnet</t>
-  </si>
-  <si>
-    <t>Arjita Chawla</t>
-  </si>
-  <si>
-    <t>arjita.chawla@quytech.com</t>
-  </si>
-  <si>
-    <t>Quytech</t>
-  </si>
-  <si>
-    <t>Arjun Chatterjee</t>
-  </si>
-  <si>
-    <t>arjun.chatterjee@sunlife.com</t>
-  </si>
-  <si>
-    <t>Director &amp; Head of Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Sun Life</t>
-  </si>
-  <si>
-    <t>Arpana Jaiswal</t>
-  </si>
-  <si>
-    <t>arpanaj@umbrellainfocare.com</t>
-  </si>
-  <si>
-    <t>Head Human Resources</t>
-  </si>
-  <si>
-    <t>Umbrella Infocare</t>
-  </si>
-  <si>
-    <t>Arpita Sarkar</t>
-  </si>
-  <si>
-    <t>arpita.sarkar@webskitters.com</t>
-  </si>
-  <si>
-    <t>WEBSKITTERS TECHNOLOGY SOLUTIONS</t>
-  </si>
-  <si>
-    <t>Artoon Solutions</t>
-  </si>
-  <si>
-    <t>qa@artoonsolutions.com</t>
-  </si>
-  <si>
-    <t>Aru Uppal</t>
-  </si>
-  <si>
-    <t>aru.uppal@datdyn.com</t>
-  </si>
-  <si>
-    <t>Data Dynamics</t>
-  </si>
-  <si>
-    <t>Arun Kumar</t>
-  </si>
-  <si>
-    <t>arun.kumar@bobtechsolutions.com</t>
-  </si>
-  <si>
-    <t>HEAD - Human Resources &amp; Operations</t>
-  </si>
-  <si>
-    <t>BOB Tech Solutions</t>
-  </si>
-  <si>
-    <t>arun.kumar@shipsy.io</t>
-  </si>
-  <si>
-    <t>Mentor/ Chief People Officer</t>
-  </si>
-  <si>
-    <t>Shipsy</t>
-  </si>
-  <si>
-    <t>arun.kumar@wavicledata.com</t>
-  </si>
-  <si>
-    <t>Wavicle Data Solutions</t>
-  </si>
-  <si>
-    <t>Arun Murugappa</t>
-  </si>
-  <si>
-    <t>arun@theatem.com</t>
-  </si>
-  <si>
-    <t>Delivery Head - Talent Acquisition</t>
-  </si>
-  <si>
-    <t>ATEM Software Solutions</t>
-  </si>
-  <si>
-    <t>Arun Ravi</t>
-  </si>
-  <si>
-    <t>arun.ravi@ipsoft.com</t>
-  </si>
-  <si>
-    <t>Digital Workforce Management - Head</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Arun Singh</t>
-  </si>
-  <si>
-    <t>arun.singh@puresoftware.com</t>
-  </si>
-  <si>
-    <t>Senior Director Talent Acquisition</t>
-  </si>
-  <si>
-    <t>PureSoftware</t>
-  </si>
-  <si>
-    <t>Arun Vigneswaran</t>
-  </si>
-  <si>
-    <t>arun@xto10x.com</t>
-  </si>
-  <si>
-    <t>Head of People Excellence &amp; HR head for xto10x</t>
-  </si>
-  <si>
-    <t>xto10x</t>
-  </si>
-  <si>
-    <t>Arunima Bhushan</t>
-  </si>
-  <si>
-    <t>arunima.bhushan@orcapodservices.com</t>
-  </si>
-  <si>
-    <t>AVP-HR</t>
-  </si>
-  <si>
-    <t>Orcapod</t>
-  </si>
-  <si>
-    <t>Arushi Goel</t>
-  </si>
-  <si>
-    <t>arushi.goel@betterplace.co.in</t>
-  </si>
-  <si>
-    <t>Director HRBP</t>
-  </si>
-  <si>
-    <t>BetterPlace</t>
-  </si>
-  <si>
-    <t>Arushi Sawhney</t>
-  </si>
-  <si>
-    <t>arushi.sawhney@e2eresearch.com</t>
-  </si>
-  <si>
-    <t>Altezzasys Systems</t>
-  </si>
-  <si>
-    <t>Arvind Sadasivan</t>
-  </si>
-  <si>
-    <t>arvind.sadasivan@ekaplus.com</t>
-  </si>
-  <si>
-    <t>Director Global Human Resources</t>
-  </si>
-  <si>
-    <t>Eka Software Solutions</t>
-  </si>
-  <si>
-    <t>Asenath Sharon</t>
-  </si>
-  <si>
-    <t>sharon@srinsofttech.com</t>
-  </si>
-  <si>
-    <t>Associate Vice President - HR</t>
-  </si>
-  <si>
-    <t>SrinSoft Technologies</t>
-  </si>
-  <si>
-    <t>Asha Rao</t>
-  </si>
-  <si>
-    <t>asha.j@unilogcorp.com</t>
-  </si>
-  <si>
-    <t>Associate Director - Human Resources</t>
-  </si>
-  <si>
-    <t>Unilog</t>
-  </si>
-  <si>
-    <t>Ashish Karnik</t>
-  </si>
-  <si>
-    <t>ashish.karnik@pavilion.io</t>
-  </si>
-  <si>
-    <t>Head Performance Engineering</t>
-  </si>
-  <si>
-    <t>Pavilion</t>
-  </si>
-  <si>
-    <t>Ashish Naidu</t>
-  </si>
-  <si>
-    <t>ashish.naidu@mindgate.in</t>
-  </si>
-  <si>
-    <t>Assistant Vice President - Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Mindgate Solutions</t>
-  </si>
-  <si>
-    <t>Ashok Manjunath</t>
-  </si>
-  <si>
-    <t>ashok@spenmo.com</t>
-  </si>
-  <si>
-    <t>Spenmo</t>
-  </si>
-  <si>
-    <t>Ashok Putsala</t>
-  </si>
-  <si>
-    <t>ashok.putsala@senecaglobal.com</t>
-  </si>
-  <si>
-    <t>Associate Vice President - Talent Acquisition</t>
-  </si>
-  <si>
-    <t>SenecaGlobal</t>
-  </si>
-  <si>
-    <t>Ashok Seshadri</t>
-  </si>
-  <si>
-    <t>ashok.seshadri@objectfrontier.com</t>
-  </si>
-  <si>
-    <t>Head - Global Talent Management</t>
-  </si>
-  <si>
-    <t>ObjectFrontier Software</t>
-  </si>
-  <si>
-    <t>Ashok Tripathy</t>
-  </si>
-  <si>
-    <t>ashok.tripathy@bpoconvergence.com</t>
-  </si>
-  <si>
-    <t>PRINCIPAL CONSULTANT &amp; GROUP HEAD HR</t>
-  </si>
-  <si>
-    <t>Ashraf Kazi</t>
-  </si>
-  <si>
-    <t>ashraf.kazi@simplifyhealthcare.com</t>
-  </si>
-  <si>
-    <t>Simplify Healthcare</t>
-  </si>
-  <si>
-    <t>Ashraf Mulla</t>
-  </si>
-  <si>
-    <t>ashraf.mulla@qseap.com</t>
-  </si>
-  <si>
-    <t>AVP- Talent Acquisition &amp; Strategy</t>
-  </si>
-  <si>
-    <t>qSEAp Infotech</t>
-  </si>
-  <si>
-    <t>Ashton Lawrie</t>
-  </si>
-  <si>
-    <t>ashton.lawrie@iitms.co.in</t>
-  </si>
-  <si>
-    <t>General Manager - HR (Head of Department)</t>
-  </si>
-  <si>
-    <t>MasterSoft ERP Solutions</t>
-  </si>
-  <si>
-    <t>Ashutosh Sinha</t>
-  </si>
-  <si>
-    <t>ashutosh@tuya.com</t>
-  </si>
-  <si>
-    <t>Head - Human Resource</t>
-  </si>
-  <si>
-    <t>Tuyasmart India</t>
-  </si>
-  <si>
-    <t>Ashwani Bhargava</t>
-  </si>
-  <si>
-    <t>ashwanib@decisionminds.com</t>
-  </si>
-  <si>
-    <t>Director Recruitment</t>
-  </si>
-  <si>
-    <t>Decision Minds</t>
-  </si>
-  <si>
-    <t>Ashwani Kumar</t>
-  </si>
-  <si>
-    <t>ashwani@successive.tech</t>
-  </si>
-  <si>
-    <t>Vice President - People &amp; Culture</t>
-  </si>
-  <si>
-    <t>Successive Technologies</t>
-  </si>
-  <si>
-    <t>Ashwin Singh</t>
-  </si>
-  <si>
-    <t>ashwin@suki.ai</t>
-  </si>
-  <si>
-    <t>Suki</t>
-  </si>
-  <si>
-    <t>Ashwini Ashok</t>
-  </si>
-  <si>
-    <t>ashwini.ashok@eton-solutions.com</t>
-  </si>
-  <si>
-    <t>Eton Solutions LP</t>
-  </si>
-  <si>
-    <t>Ashwini J</t>
-  </si>
-  <si>
-    <t>ashwini.janardhanan@kaleyra.com</t>
-  </si>
-  <si>
-    <t>Head - People &amp; Culture, APAC</t>
-  </si>
-  <si>
-    <t>Kaleyra</t>
-  </si>
-  <si>
-    <t>Aswanth Goka</t>
-  </si>
-  <si>
-    <t>agoka@workfusion.com</t>
-  </si>
-  <si>
-    <t>WorkFusion</t>
-  </si>
-  <si>
-    <t>Aswin Prashannth</t>
-  </si>
-  <si>
-    <t>aswin@psrtek.com</t>
-  </si>
-  <si>
-    <t>Head Talent Acquisition of India Operation</t>
-  </si>
-  <si>
-    <t>PSRTEK</t>
-  </si>
-  <si>
-    <t>Atin Karmokar</t>
-  </si>
-  <si>
-    <t>atin.karmokar@pentagon.co.in</t>
-  </si>
-  <si>
-    <t>AVP - Head Human Resources &amp; Admin</t>
-  </si>
-  <si>
-    <t>Pentagon System and Services</t>
-  </si>
-  <si>
-    <t>Atul Kanknala</t>
-  </si>
-  <si>
-    <t>atul.kanknala@craveinfotech.com</t>
-  </si>
-  <si>
-    <t>Head HR- Talent Acquisition and Strategy</t>
-  </si>
-  <si>
-    <t>Crave InfoTech</t>
-  </si>
-  <si>
-    <t>Atul Pal</t>
-  </si>
-  <si>
-    <t>atul.pal@innefu.com</t>
-  </si>
-  <si>
-    <t>Head Of Human Resources - Client Operations</t>
-  </si>
-  <si>
-    <t>Innefu Labs</t>
-  </si>
-  <si>
-    <t>Avinash Poojari</t>
-  </si>
-  <si>
-    <t>avinash@sedintechnologies.com</t>
-  </si>
-  <si>
-    <t>AVP - Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Sedin Technologies</t>
-  </si>
-  <si>
-    <t>Ayush Daryani</t>
-  </si>
-  <si>
-    <t>ayush.daryani@niftel.com</t>
-  </si>
-  <si>
-    <t>Head Of Recruitment</t>
-  </si>
-  <si>
-    <t>Niftel Communications</t>
-  </si>
-  <si>
-    <t>Ayush Sinha</t>
-  </si>
-  <si>
-    <t>ayush.sinha@sugarboxnetworks.com</t>
-  </si>
-  <si>
-    <t>SugarBox Networks</t>
-  </si>
-  <si>
-    <t>Babitha Nambiar</t>
-  </si>
-  <si>
-    <t>babitha.nambiar@opusconsulting.com</t>
-  </si>
-  <si>
-    <t>VP - Head Human Resources</t>
-  </si>
-  <si>
-    <t>Opus Consulting Solutions</t>
-  </si>
-  <si>
-    <t>Babu Thoppil</t>
-  </si>
-  <si>
-    <t>babu_thoppil@mahindrasatyam.com</t>
-  </si>
-  <si>
-    <t>VP - HR</t>
-  </si>
-  <si>
-    <t>Mahindra Satyam BPO</t>
-  </si>
-  <si>
-    <t>Balaji Er</t>
-  </si>
-  <si>
-    <t>balaji@isourceindia.com</t>
-  </si>
-  <si>
-    <t>iSource ITES</t>
-  </si>
-  <si>
-    <t>Balaji Thiyagarajan</t>
-  </si>
-  <si>
-    <t>balaji.thiyagarajan@thirdware.com</t>
-  </si>
-  <si>
-    <t>Thirdware Solution INC</t>
-  </si>
-  <si>
-    <t>Balakrishna Shetty</t>
-  </si>
-  <si>
-    <t>balakrishna.shetty@genisys-group.com</t>
-  </si>
-  <si>
-    <t>Vice President - Human Resource</t>
-  </si>
-  <si>
-    <t>Genisys Group</t>
-  </si>
-  <si>
-    <t>Balaraju Guddinti</t>
-  </si>
-  <si>
-    <t>balaraju.g@nslhub.com</t>
-  </si>
-  <si>
-    <t>Brane Enterprises</t>
-  </si>
-  <si>
-    <t>Balesh S</t>
-  </si>
-  <si>
-    <t>balesh@adarshsolutions.com</t>
-  </si>
-  <si>
-    <t>Head HR &amp; Operations</t>
-  </si>
-  <si>
-    <t>Adarsh Solutions</t>
-  </si>
-  <si>
-    <t>Balneet Birah</t>
-  </si>
-  <si>
-    <t>balneet.birah@netsolutions.com</t>
-  </si>
-  <si>
-    <t>Net Solutions</t>
-  </si>
-  <si>
-    <t>Bandana Kaul</t>
-  </si>
-  <si>
-    <t>bandana@airditsoftware.com</t>
-  </si>
-  <si>
-    <t>Director-Human Resources</t>
-  </si>
-  <si>
-    <t>Airdit Software Services</t>
-  </si>
-  <si>
-    <t>Bandla Shyamprasad</t>
-  </si>
-  <si>
-    <t>bandla.shyamprasad@terralogic.com</t>
-  </si>
-  <si>
-    <t>Director - HR &amp; Operations</t>
-  </si>
-  <si>
-    <t>Terralogic</t>
-  </si>
-  <si>
-    <t>Banmeet Kour</t>
-  </si>
-  <si>
-    <t>banmeet.kour@itbd.net</t>
-  </si>
-  <si>
-    <t>Head of Talent Acquisition India/PH/US</t>
-  </si>
-  <si>
-    <t>Barkha Agrawal</t>
-  </si>
-  <si>
-    <t>bagrawal@cpg-inc.com</t>
-  </si>
-  <si>
-    <t>Director-Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Computer Power Group</t>
-  </si>
-  <si>
-    <t>Barkha Dave</t>
-  </si>
-  <si>
-    <t>barkha@trellissoft.ai</t>
-  </si>
-  <si>
-    <t>Head of HR &amp; Operations Compliance</t>
-  </si>
-  <si>
-    <t>Trellissoft,</t>
-  </si>
-  <si>
-    <t>Barkha Sharma</t>
-  </si>
-  <si>
-    <t>barkha@wobot.ai</t>
-  </si>
-  <si>
-    <t>CHRO</t>
-  </si>
-  <si>
-    <t>Wobot.ai</t>
-  </si>
-  <si>
-    <t>Basava</t>
-  </si>
-  <si>
-    <t>basava@kamivision.com</t>
-  </si>
-  <si>
-    <t>Kami Vision</t>
-  </si>
-  <si>
-    <t>Batool Ali</t>
-  </si>
-  <si>
-    <t>batool.ali@electriphi.ai</t>
-  </si>
-  <si>
-    <t>Ford Pro Charging</t>
-  </si>
-  <si>
-    <t>Bedisha Karmakar</t>
-  </si>
-  <si>
-    <t>bedisha@reward360.co</t>
-  </si>
-  <si>
-    <t>Senior Director People Operations</t>
-  </si>
-  <si>
-    <t>Reward360 Global Services.</t>
-  </si>
-  <si>
-    <t>Benoy Koshy</t>
-  </si>
-  <si>
-    <t>benoy.koshy@sisainfosec.com</t>
-  </si>
-  <si>
-    <t>SISA</t>
-  </si>
-  <si>
-    <t>Bensely Zachariah</t>
-  </si>
-  <si>
-    <t>bensely.zachariah@fulcrumdigital.com</t>
-  </si>
-  <si>
-    <t>Global Head of Human Resources</t>
-  </si>
-  <si>
-    <t>Bensley Zachariah</t>
-  </si>
-  <si>
-    <t>bensley.zachariah@fulcrumdigital.com</t>
-  </si>
-  <si>
-    <t>Benson Mendez</t>
-  </si>
-  <si>
-    <t>benson.mendez@microobjects.net</t>
-  </si>
-  <si>
-    <t>VP - Human Resources</t>
-  </si>
-  <si>
-    <t>MicroObjects</t>
-  </si>
-  <si>
-    <t>Bhakti Dharod</t>
-  </si>
-  <si>
-    <t>bhakti.dharod@idfy.com</t>
-  </si>
-  <si>
-    <t>IDfy</t>
-  </si>
-  <si>
-    <t>Bharat Bhartia</t>
-  </si>
-  <si>
-    <t>bharat.bhartia@workindia.in</t>
-  </si>
-  <si>
-    <t>Head of Talent Acquisition and HR</t>
-  </si>
-  <si>
-    <t>Bharat Rao</t>
-  </si>
-  <si>
-    <t>bharat@ka-nex.com</t>
-  </si>
-  <si>
-    <t>CK Solutions</t>
-  </si>
-  <si>
-    <t>Bharathi Ravipati</t>
-  </si>
-  <si>
-    <t>bravipati@appstekcorp.com</t>
-  </si>
-  <si>
-    <t>Sr. Director HR- Eastern Region</t>
-  </si>
-  <si>
-    <t>AppsTek</t>
-  </si>
-  <si>
-    <t>Bhargavi Challa</t>
-  </si>
-  <si>
-    <t>bhargavic@aissel.com</t>
-  </si>
-  <si>
-    <t>Aissel Technologies</t>
-  </si>
-  <si>
-    <t>Bharti Negi</t>
-  </si>
-  <si>
-    <t>bharti.negi@edifecs.com</t>
-  </si>
-  <si>
-    <t>Sr. Director, Recruitment, Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Edifecs</t>
-  </si>
-  <si>
-    <t>Bhavana Jain</t>
-  </si>
-  <si>
-    <t>bhavana@netcore.co.in</t>
-  </si>
-  <si>
-    <t>Netcore Cloud</t>
-  </si>
-  <si>
-    <t>Bhavik Kaklotar</t>
-  </si>
-  <si>
-    <t>bkaklotar@diabsolut.com</t>
-  </si>
-  <si>
-    <t>Head Global Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Diabsolut Inc</t>
-  </si>
-  <si>
-    <t>Bhavik Shah</t>
-  </si>
-  <si>
-    <t>bhavik@games2win.com</t>
-  </si>
-  <si>
-    <t>Human Resources Head</t>
-  </si>
-  <si>
-    <t>Games2win India</t>
-  </si>
-  <si>
-    <t>Bhavika Sheth</t>
-  </si>
-  <si>
-    <t>bhavika.sheth@itcgindia.com</t>
-  </si>
-  <si>
-    <t>HR Head at ITCG</t>
-  </si>
-  <si>
-    <t>ITCG Solutions</t>
-  </si>
-  <si>
-    <t>Bhavin Sanghavi</t>
-  </si>
-  <si>
-    <t>bhavin@mydukaan.io</t>
-  </si>
-  <si>
-    <t>Head - Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Dukaan</t>
-  </si>
-  <si>
-    <t>Bhavya Shetty</t>
-  </si>
-  <si>
-    <t>bhavya@supplywisdom.com</t>
-  </si>
-  <si>
-    <t>Director Talent Management</t>
-  </si>
-  <si>
-    <t>Supply Wisdom</t>
-  </si>
-  <si>
-    <t>Bhawna Suri</t>
-  </si>
-  <si>
-    <t>bhawna@weexcel.in</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Bhupesh Wasmatkar</t>
-  </si>
-  <si>
-    <t>bhupesh.wasmatkar@verse.in</t>
-  </si>
-  <si>
-    <t>VerSe Innovation</t>
-  </si>
-  <si>
-    <t>Biju Varghese</t>
-  </si>
-  <si>
-    <t>biju.v@inapp.com</t>
-  </si>
-  <si>
-    <t>Director | HR | InApp</t>
-  </si>
-  <si>
-    <t>InApp</t>
-  </si>
-  <si>
-    <t>Bikram Dash</t>
-  </si>
-  <si>
-    <t>bikram.dash@tatwa.info</t>
-  </si>
-  <si>
-    <t>Vice President HR L&amp;D</t>
-  </si>
-  <si>
-    <t>TATWA Technologies</t>
-  </si>
-  <si>
-    <t>Bindu Krishnan</t>
-  </si>
-  <si>
-    <t>bindu.krishnan@ospyn.com</t>
-  </si>
-  <si>
-    <t>Director-Human Resources and Administration</t>
-  </si>
-  <si>
-    <t>Ospyn Technologies</t>
-  </si>
-  <si>
-    <t>Binoy Varghese</t>
-  </si>
-  <si>
-    <t>binoy.varghese@rgigroup.com</t>
-  </si>
-  <si>
-    <t>Group Head (Human Resources)</t>
-  </si>
-  <si>
-    <t>RGI Group</t>
-  </si>
-  <si>
-    <t>Biplob Das</t>
-  </si>
-  <si>
-    <t>biplob.das@izmoltd.com</t>
-  </si>
-  <si>
-    <t>izmo</t>
-  </si>
-  <si>
-    <t>Birendra Rout</t>
-  </si>
-  <si>
-    <t>birendra.rout@weavertec.com</t>
-  </si>
-  <si>
-    <t>Head-HR</t>
-  </si>
-  <si>
-    <t>Weaverbird Engineering &amp; Technology</t>
-  </si>
-  <si>
-    <t>Bishnu Rai</t>
-  </si>
-  <si>
-    <t>bishnu.rai@iglobalservices.net</t>
-  </si>
-  <si>
-    <t>iGlobal KPO Services</t>
-  </si>
-  <si>
-    <t>Bosky Wadhwa</t>
-  </si>
-  <si>
-    <t>bosky.w@totalitglobal.com</t>
-  </si>
-  <si>
-    <t>Total IT Global</t>
-  </si>
-  <si>
-    <t>Brij Kishore</t>
-  </si>
-  <si>
-    <t>brij@claritusconsulting.com</t>
-  </si>
-  <si>
-    <t>Vice President Recruitment Operations</t>
-  </si>
-  <si>
-    <t>Claritus Management Consulting</t>
-  </si>
-  <si>
-    <t>Britto Ambrose</t>
-  </si>
-  <si>
-    <t>britto@xoxoday.com</t>
-  </si>
-  <si>
-    <t>Vice President of People &amp; Culture</t>
-  </si>
-  <si>
-    <t>Xoxoday</t>
-  </si>
-  <si>
-    <t>Bushra Mehdi</t>
-  </si>
-  <si>
-    <t>bushra.mehdi@axeno.co</t>
-  </si>
-  <si>
-    <t>AVP - Human Resources</t>
-  </si>
-  <si>
-    <t>Axeno</t>
-  </si>
-  <si>
-    <t>Byju Valappil</t>
-  </si>
-  <si>
-    <t>byju@rdalabs.com</t>
-  </si>
-  <si>
-    <t>Senior Director - HR</t>
-  </si>
-  <si>
-    <t>RDAlabs</t>
-  </si>
-  <si>
-    <t>Capt Kansal</t>
-  </si>
-  <si>
-    <t>capt.kansal@writerinformation.com</t>
-  </si>
-  <si>
-    <t>Head Safety Security</t>
-  </si>
-  <si>
-    <t>Writer Information</t>
-  </si>
-  <si>
-    <t>Celina Joseph</t>
-  </si>
-  <si>
-    <t>celina.joseph@extentia.com</t>
-  </si>
-  <si>
-    <t>Extentia Information Technology</t>
-  </si>
-  <si>
-    <t>Chainsingh Rathore</t>
-  </si>
-  <si>
-    <t>chainsingh.rathore@thegatewaycorp.com</t>
-  </si>
-  <si>
-    <t>AVP Talent Acquisition &amp; Operations</t>
-  </si>
-  <si>
-    <t>Gateway Group of Companies</t>
-  </si>
-  <si>
-    <t>Chaitali Bhattacharya</t>
-  </si>
-  <si>
-    <t>cbhattacharya@inventive-it.com</t>
-  </si>
-  <si>
-    <t>Senior Director of Human Resources</t>
-  </si>
-  <si>
-    <t>Inventive IT</t>
-  </si>
-  <si>
-    <t>Chaitali Ray</t>
-  </si>
-  <si>
-    <t>cray@netwoven.com</t>
-  </si>
-  <si>
-    <t>Netwoven</t>
-  </si>
-  <si>
-    <t>Chaitanya Arikati</t>
-  </si>
-  <si>
-    <t>chaitanya.arikati@abjayon.com</t>
-  </si>
-  <si>
-    <t>Senior Recruitment Manager (Head - TA)</t>
-  </si>
-  <si>
-    <t>Abjayon</t>
-  </si>
-  <si>
-    <t>Chaitanya Kanthi</t>
-  </si>
-  <si>
-    <t>chaitanya.kanthi@smartims.com</t>
-  </si>
-  <si>
-    <t>Senior Director - Human Resources</t>
-  </si>
-  <si>
-    <t>Smart IMS</t>
-  </si>
-  <si>
-    <t>Chaitanya Peeta</t>
-  </si>
-  <si>
-    <t>chaitanya.peeta@polygon.technology</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Chamola Hal</t>
-  </si>
-  <si>
-    <t>chamola.hal@hal-dz.com</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>Chanchal Chandiok</t>
-  </si>
-  <si>
-    <t>chanchal.chandiok@northgateps.com</t>
-  </si>
-  <si>
-    <t>NEC Software Solutions</t>
-  </si>
-  <si>
-    <t>Chandan Gambhir</t>
-  </si>
-  <si>
-    <t>chandan@noida.interrasystems.com</t>
-  </si>
-  <si>
-    <t>Interra Systems</t>
-  </si>
-  <si>
-    <t>Chandan Thakur</t>
-  </si>
-  <si>
-    <t>chandan.kashyap@mysenseinc.com</t>
-  </si>
-  <si>
-    <t>Chief Talent Officer</t>
-  </si>
-  <si>
-    <t>Mysense Technologies</t>
-  </si>
-  <si>
-    <t>Chandini Davies</t>
-  </si>
-  <si>
-    <t>chandinid@saglobal.com</t>
-  </si>
-  <si>
-    <t>sa.global</t>
-  </si>
-  <si>
-    <t>Chandini Mokthar</t>
-  </si>
-  <si>
-    <t>chandini@moolya.com</t>
-  </si>
-  <si>
-    <t>VP-People &amp; Culture</t>
-  </si>
-  <si>
-    <t>Moolya</t>
-  </si>
-  <si>
-    <t>Chandni Chopra</t>
-  </si>
-  <si>
-    <t>chandnic@lambdatest.com</t>
-  </si>
-  <si>
-    <t>LambdaTest</t>
-  </si>
-  <si>
-    <t>Chandni Yadav</t>
-  </si>
-  <si>
-    <t>chandniyadav@ucreate.co.in</t>
-  </si>
-  <si>
-    <t>Global Head of Talent Acquisition</t>
-  </si>
-  <si>
-    <t>Founder and Lightning</t>
-  </si>
-  <si>
-    <t>Chandra Prakash</t>
-  </si>
-  <si>
-    <t>chandra.prakash@innoverdigital.com</t>
-  </si>
-  <si>
-    <t>Innover Digital</t>
-  </si>
-  <si>
-    <t>Chandra Ratra</t>
-  </si>
-  <si>
-    <t>chandra.ratra@navigaglobal.com</t>
-  </si>
-  <si>
-    <t>Naviga India</t>
-  </si>
-  <si>
-    <t>Chandrakanth K</t>
-  </si>
-  <si>
-    <t>chandra@srivensys.com</t>
-  </si>
-  <si>
-    <t>Head of Recruiting Operations</t>
-  </si>
-  <si>
-    <t>Sriven Systems</t>
-  </si>
-  <si>
-    <t>Chandrasekhar Gv</t>
-  </si>
-  <si>
-    <t>cgv@eclinicalsol.com</t>
-  </si>
-  <si>
-    <t>eClinical Solutions</t>
-  </si>
-  <si>
-    <t>Chandrashekar R</t>
-  </si>
-  <si>
-    <t>chandrashekarr@softura.com</t>
-  </si>
-  <si>
-    <t>Softura</t>
-  </si>
-  <si>
-    <t>Chandresh Kumar</t>
-  </si>
-  <si>
-    <t>chandresh.kumar@jagrannewmedia.com</t>
-  </si>
-  <si>
-    <t>Chief Manager &amp; Head ( Performance Advertising)</t>
-  </si>
-  <si>
-    <t>Jagran New Media</t>
-  </si>
-  <si>
-    <t>Charan Singh</t>
-  </si>
-  <si>
-    <t>charan@srinipharma.com</t>
-  </si>
-  <si>
-    <t>HEAD /HR</t>
-  </si>
-  <si>
-    <t>SRINI PHARMACEUTICALS</t>
-  </si>
-  <si>
-    <t>Charles Timothy</t>
-  </si>
-  <si>
-    <t>charles.t@palni.com</t>
-  </si>
-  <si>
-    <t>Palni Inc</t>
-  </si>
-  <si>
-    <t>Charmaine Pinto</t>
-  </si>
-  <si>
-    <t>charmaine@streamoid.com</t>
-  </si>
-  <si>
-    <t>Streamoid</t>
-  </si>
-  <si>
-    <t>Cheryl Anjelo</t>
-  </si>
-  <si>
-    <t>cheryl.anjelo@colortokens.com</t>
-  </si>
-  <si>
-    <t>ColorTokens</t>
-  </si>
-  <si>
-    <t>Chetan Verma</t>
-  </si>
-  <si>
-    <t>cverma@fcsltd.com</t>
-  </si>
-  <si>
-    <t>Head Recruitment</t>
-  </si>
-  <si>
-    <t>FCS Software Solutions</t>
-  </si>
-  <si>
-    <t>Chetna Gogia</t>
-  </si>
-  <si>
-    <t>chetna@gokwik.co</t>
-  </si>
-  <si>
-    <t>GoKwik</t>
-  </si>
-  <si>
-    <t>Chhavi Bhatnagar</t>
-  </si>
-  <si>
-    <t>chhavi.bhatnagar@acnovate.com</t>
-  </si>
-  <si>
-    <t>Acnovate Corporation</t>
-  </si>
-  <si>
-    <t>Chinmoy Roy</t>
-  </si>
-  <si>
-    <t>chinmoy.roy@catalyst-us.com</t>
-  </si>
-  <si>
-    <t>Catalyst Business Solutions</t>
-  </si>
-  <si>
-    <t>Chintan Bhatt</t>
-  </si>
-  <si>
-    <t>b.chintan@introlligent.com</t>
-  </si>
-  <si>
-    <t>Recruitment Head-US Operations</t>
-  </si>
-  <si>
-    <t>Introlligent</t>
-  </si>
-  <si>
-    <t>Chirag Patel</t>
-  </si>
-  <si>
-    <t>chirag.patel1@rangtech.com</t>
-  </si>
-  <si>
-    <t>Talent Acquisition Manager &amp; Head-hunter</t>
-  </si>
-  <si>
-    <t>Rang Technologies Inc</t>
-  </si>
-  <si>
-    <t>Chirag Shah</t>
-  </si>
-  <si>
-    <t>chirag.shah@iflair.com</t>
-  </si>
-  <si>
-    <t>Director (HR &amp; Admin)</t>
-  </si>
-  <si>
-    <t>iFlair Web Technologies</t>
-  </si>
-  <si>
-    <t>Chiranjeevi Pannem</t>
-  </si>
-  <si>
-    <t>chiranjeevip@byteridge.com</t>
-  </si>
-  <si>
-    <t>Byteridge</t>
-  </si>
-  <si>
-    <t>Chitra Markale</t>
-  </si>
-  <si>
-    <t>chitram@zconsolutions.com</t>
-  </si>
-  <si>
-    <t>zCon Solutions</t>
-  </si>
-  <si>
-    <t>Chitra Ravi</t>
-  </si>
-  <si>
-    <t>chitra.ravi@ample.co.in</t>
-  </si>
-  <si>
-    <t>Ample Technologies</t>
-  </si>
-  <si>
-    <t>Cireesha Mailavarapu</t>
-  </si>
-  <si>
-    <t>cireesha.m@etisbew.com</t>
-  </si>
-  <si>
-    <t>Vice President - Global HR &amp; Alliances</t>
-  </si>
-  <si>
-    <t>ETG Digital</t>
-  </si>
-  <si>
-    <t>Crp Saurabh</t>
-  </si>
-  <si>
-    <t>saurabh@caastle.com</t>
-  </si>
-  <si>
-    <t>Head of Total Rewards and People Operations</t>
-  </si>
-  <si>
-    <t>CaaStle</t>
-  </si>
-  <si>
-    <t>Cynthia Rodrigues</t>
-  </si>
-  <si>
-    <t>cynthia@netcore.co.in</t>
-  </si>
-  <si>
-    <t>Group Vice President -HR</t>
-  </si>
-  <si>
-    <t>Damayanti Ghosh</t>
-  </si>
-  <si>
-    <t>damayanti.ghosh@getvymo.com</t>
-  </si>
-  <si>
-    <t>Daniel Shaw</t>
-  </si>
-  <si>
-    <t>daniel.shaw@kpipartners.com</t>
-  </si>
-  <si>
-    <t>Director of HR &amp; Talent Acquisition</t>
-  </si>
-  <si>
-    <t>KPI Partners</t>
-  </si>
-  <si>
-    <t>Dathree Javvadi</t>
-  </si>
-  <si>
-    <t>dathree.javvadi@vncservices.in</t>
-  </si>
-  <si>
-    <t>Cheif Human Resources Officer CHRO</t>
-  </si>
-  <si>
-    <t>VNC Digital Services</t>
-  </si>
-  <si>
-    <t>Debashish Bhattacharya</t>
-  </si>
-  <si>
-    <t>debashishb@interrait.com</t>
-  </si>
-  <si>
-    <t>Interra Information Technologies</t>
-  </si>
-  <si>
-    <t>Debdutta Bhowmick</t>
-  </si>
-  <si>
-    <t>debdutta.bhowmick@atidiv.com</t>
-  </si>
-  <si>
-    <t>Atidiv</t>
-  </si>
-  <si>
-    <t>Debojit Das</t>
-  </si>
-  <si>
-    <t>debojit.das@betterplace.co.in</t>
-  </si>
-  <si>
-    <t>Associate Director - Staffing</t>
-  </si>
-  <si>
-    <t>Deborah Passanha</t>
-  </si>
-  <si>
-    <t>dpassanha@everydayhealth.com</t>
-  </si>
-  <si>
-    <t>Director of Operations / HR Head</t>
-  </si>
-  <si>
-    <t>Everyday Health Group</t>
-  </si>
-  <si>
-    <t>Deep Ambike</t>
-  </si>
-  <si>
-    <t>deep@thinkbridge.in</t>
-  </si>
-  <si>
-    <t>Associate Director - Global Talent</t>
-  </si>
-  <si>
-    <t>thinkbridge</t>
-  </si>
-  <si>
-    <t>Deep Patel</t>
-  </si>
-  <si>
-    <t>deep.patel@ics-global.in</t>
-  </si>
-  <si>
-    <t>Vice President Talent Acquisition</t>
-  </si>
-  <si>
-    <t>INTECH</t>
-  </si>
-  <si>
-    <t>Deepa Baburaj</t>
-  </si>
-  <si>
-    <t>bdeepa@zeomega.com</t>
-  </si>
-  <si>
-    <t>Associate Director - HR at ZeOmega</t>
-  </si>
-  <si>
-    <t>ZeOmega</t>
-  </si>
-  <si>
-    <t>Deepa Dand</t>
-  </si>
-  <si>
-    <t>deepa@prdxn.com</t>
-  </si>
-  <si>
-    <t>Director of Accounts/Administration (HR Support)</t>
-  </si>
-  <si>
-    <t>Axioned</t>
-  </si>
-  <si>
-    <t>Deepa Makhija</t>
-  </si>
-  <si>
-    <t>deepa.makhija@gupshup.io</t>
-  </si>
-  <si>
-    <t>Gupshup</t>
-  </si>
-  <si>
-    <t>Deepa Mukherjee</t>
-  </si>
-  <si>
-    <t>deepa.mukherjee@esri.in</t>
-  </si>
-  <si>
-    <t>Chief People Officer &amp; Vice President</t>
-  </si>
-  <si>
-    <t>Esri India</t>
-  </si>
-  <si>
-    <t>Deepa Palaniswamy</t>
-  </si>
-  <si>
-    <t>deepa.palaniswamy@ducenit.com</t>
-  </si>
-  <si>
-    <t>Center Head India / Operations and Global HR</t>
-  </si>
-  <si>
-    <t>Ducen</t>
-  </si>
-  <si>
-    <t>Deepa Sripathi</t>
-  </si>
-  <si>
-    <t>deepa.sripathi@konicaminolta.com</t>
-  </si>
-  <si>
-    <t>Konica Minolta Business Solutions India</t>
-  </si>
-  <si>
-    <t>Deepak Babu</t>
-  </si>
-  <si>
-    <t>deepak.babu@appviewx.com</t>
-  </si>
-  <si>
-    <t>AppViewX</t>
-  </si>
-  <si>
-    <t>Deepak Chavan</t>
-  </si>
-  <si>
-    <t>deepak.chavan@visiblealpha.com</t>
-  </si>
-  <si>
-    <t>Manager - Head Talent Acquisition India</t>
-  </si>
-  <si>
-    <t>Deepak Deshpande</t>
-  </si>
-  <si>
-    <t>deepak.deshpande@netmagicsolutions.com</t>
-  </si>
-  <si>
-    <t>Deepak Gelda</t>
-  </si>
-  <si>
-    <t>deepak@uchicago.edu</t>
-  </si>
-  <si>
-    <t>IT Services</t>
-  </si>
-  <si>
-    <t>Deepak Khanna</t>
-  </si>
-  <si>
-    <t>dkhanna@ishir.com</t>
-  </si>
-  <si>
-    <t>ISHIR</t>
-  </si>
-  <si>
-    <t>Deepak Melwani</t>
-  </si>
-  <si>
-    <t>deepak.melwani@galaxyweblinks.co.in</t>
-  </si>
-  <si>
-    <t>Head of Talent Acquisition and Employer Branding</t>
-  </si>
-  <si>
-    <t>Galaxy Weblinks Inc</t>
-  </si>
-  <si>
-    <t>Deepak Pawar</t>
-  </si>
-  <si>
-    <t>deepak.pawar@accutech.co.in</t>
-  </si>
-  <si>
-    <t>Accutech Power Solutions</t>
-  </si>
-  <si>
-    <t>Deepak Ramakrishnan</t>
-  </si>
-  <si>
-    <t>deepak.ramakrishnan@csquare.in</t>
-  </si>
-  <si>
-    <t>C-Square Info Solutions</t>
-  </si>
-  <si>
-    <t>Deepak Singh</t>
-  </si>
-  <si>
-    <t>deepak@dixitindia.com</t>
-  </si>
-  <si>
-    <t>Dixit Infotech Services</t>
-  </si>
-  <si>
-    <t>Deepali</t>
-  </si>
-  <si>
-    <t>deepali@proximity.tech</t>
-  </si>
-  <si>
-    <t>Director - People Operations</t>
-  </si>
-  <si>
-    <t>Proximity Works</t>
-  </si>
-  <si>
-    <t>Deepali Verdi</t>
-  </si>
-  <si>
-    <t>deepali.verdi@genzeon.com</t>
-  </si>
-  <si>
-    <t>Associate Director Human Resources</t>
-  </si>
-  <si>
-    <t>Genzeon</t>
-  </si>
-  <si>
-    <t>Deepashree V</t>
-  </si>
-  <si>
-    <t>deepashree.v@skience.com</t>
-  </si>
-  <si>
-    <t>HR Head - India</t>
-  </si>
-  <si>
-    <t>Skience</t>
-  </si>
-  <si>
-    <t>Deepika Pandita</t>
-  </si>
-  <si>
-    <t>deepika@appinessworld.com</t>
-  </si>
-  <si>
-    <t>Appiness Interactive</t>
-  </si>
-  <si>
-    <t>Deepika Singh</t>
-  </si>
-  <si>
-    <t>deepika@webkul.com</t>
-  </si>
-  <si>
-    <t>Webkul</t>
-  </si>
-  <si>
-    <t>Deepthi Kesireddy</t>
-  </si>
-  <si>
-    <t>deepthi.kesireddy@smartims.com</t>
-  </si>
-  <si>
-    <t>Deepthi Vorem</t>
-  </si>
-  <si>
-    <t>deepthi.v@etggs.com</t>
-  </si>
-  <si>
-    <t>Deepti Ashar</t>
-  </si>
-  <si>
-    <t>deepti@mindcraft.in</t>
-  </si>
-  <si>
-    <t>Vice President, Head of Consulting Services &amp; HR</t>
-  </si>
-  <si>
-    <t>MindCraft Software</t>
-  </si>
-  <si>
-    <t>Deepti Bathija</t>
-  </si>
-  <si>
-    <t>deepti.bathija@orcapodservices.com</t>
-  </si>
-  <si>
-    <t>AVP - (Contract Staffing - BFSI &amp; Service Clients)</t>
-  </si>
-  <si>
-    <t>Deepti Lewis</t>
-  </si>
-  <si>
-    <t>dlewis@conviva.com</t>
-  </si>
-  <si>
-    <t>Conviva</t>
-  </si>
-  <si>
-    <t>Deepti Mendiratta</t>
-  </si>
-  <si>
-    <t>deepti.m@trell.in</t>
-  </si>
-  <si>
-    <t>Trell</t>
-  </si>
-  <si>
-    <t>Deepti N</t>
-  </si>
-  <si>
-    <t>deepti.n@accelq.com</t>
-  </si>
-  <si>
-    <t>Director-HR</t>
-  </si>
-  <si>
-    <t>ACCELQ</t>
-  </si>
-  <si>
-    <t>Deepti Sahni</t>
-  </si>
-  <si>
-    <t>deepti.sahni@mobiloitte.com</t>
-  </si>
-  <si>
-    <t>Mobiloitte</t>
-  </si>
-  <si>
-    <t>Deepti Tewari</t>
-  </si>
-  <si>
-    <t>dgtewari@quark.com</t>
-  </si>
-  <si>
-    <t>Global Human Resources Director</t>
-  </si>
-  <si>
-    <t>Quark Software</t>
-  </si>
-  <si>
-    <t>Deepti Waghmare</t>
-  </si>
-  <si>
-    <t>deeptiw@pre-scient.com</t>
-  </si>
-  <si>
-    <t>Director - Legal, HR &amp; Admin</t>
-  </si>
-  <si>
-    <t>Prescient Technologies</t>
-  </si>
-  <si>
-    <t>Deo Kumar</t>
-  </si>
-  <si>
-    <t>deo.kumar@akalinfosys.com</t>
-  </si>
-  <si>
-    <t>Recruitment and Deployment Head</t>
-  </si>
-  <si>
-    <t>Akal Information Systems</t>
-  </si>
-  <si>
-    <t>Devang Hindocha</t>
-  </si>
-  <si>
-    <t>devang@strategicerp.com</t>
-  </si>
-  <si>
-    <t>StrategicERP Business Automation Solutions</t>
-  </si>
-  <si>
-    <t>Devansh Narang</t>
-  </si>
-  <si>
-    <t>devansh.narang@loco.gg</t>
-  </si>
-  <si>
-    <t>Head of Content &amp; Talent</t>
-  </si>
-  <si>
-    <t>Devanshi Shah</t>
-  </si>
-  <si>
-    <t>devanshi@brainerhub.com</t>
-  </si>
-  <si>
-    <t>Head of HR &amp; Talent Acquisition</t>
-  </si>
-  <si>
-    <t>BrainerHub Solutions</t>
-  </si>
-  <si>
-    <t>Devershi Desai</t>
-  </si>
-  <si>
-    <t>devershi.desai@ssminfotech.com</t>
-  </si>
-  <si>
-    <t>Head -Human Resource</t>
-  </si>
-  <si>
-    <t>SSM InfoTech Solutions</t>
-  </si>
-  <si>
-    <t>Devi Reddy</t>
-  </si>
-  <si>
-    <t>dreddy@dvginteractive.com</t>
-  </si>
-  <si>
-    <t>DVG</t>
-  </si>
-  <si>
-    <t>Devika Chauhan</t>
-  </si>
-  <si>
-    <t>devika@shopx.in</t>
-  </si>
-  <si>
-    <t>Director Human Resource</t>
-  </si>
-  <si>
-    <t>ShopX</t>
-  </si>
-  <si>
-    <t>Dharmendra Rawat</t>
-  </si>
-  <si>
-    <t>dharmendra.rawat@lumiq.ai</t>
-  </si>
-  <si>
-    <t>Lumiq</t>
-  </si>
-  <si>
-    <t>Dharmendra Singh</t>
-  </si>
-  <si>
-    <t>dharmendra@akshay.com</t>
-  </si>
-  <si>
-    <t>GM - Head of Staffing</t>
-  </si>
-  <si>
-    <t>Akshay Software Technologies</t>
-  </si>
-  <si>
-    <t>Dharmik Gohel</t>
-  </si>
-  <si>
-    <t>dharmik@atlan.com</t>
-  </si>
-  <si>
-    <t>Atlan</t>
-  </si>
-  <si>
-    <t>Dhinesh Shankar</t>
-  </si>
-  <si>
-    <t>dshankar@dataintensity.com</t>
-  </si>
-  <si>
-    <t>AVP - HR &amp; Admin</t>
-  </si>
-  <si>
-    <t>Data Intensity</t>
-  </si>
-  <si>
-    <t>Dhirendra Kamboj</t>
-  </si>
-  <si>
-    <t>dkamboj@newtglobalcorp.com</t>
-  </si>
-  <si>
-    <t>Newt Global Consulting</t>
-  </si>
-  <si>
-    <t>Dhirendra Panda</t>
-  </si>
-  <si>
-    <t>dhirendra.panda@ivalue.co.in</t>
-  </si>
-  <si>
-    <t>iValue InfoSolutions</t>
-  </si>
-  <si>
-    <t>Dhritiparna Dhar</t>
-  </si>
-  <si>
-    <t>dhritiparnad@zendrive.com</t>
+    <t>XSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3251,6 +71,13 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3297,16 +124,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3525,18 +355,11 @@
   </sheetPr>
   <dimension ref="A1:E1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="36.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3556,11 +379,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -3570,5053 +403,2083 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>310</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>321</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>90</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>343</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>93</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>358</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>362</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>97</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>366</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>98</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>372</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>375</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>379</v>
-      </c>
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>103</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>386</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>104</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>390</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>393</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>106</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>397</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>108</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>405</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>408</v>
-      </c>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>411</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>112</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>417</v>
-      </c>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>113</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>420</v>
-      </c>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>423</v>
-      </c>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>426</v>
-      </c>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>430</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>434</v>
-      </c>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>118</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>438</v>
-      </c>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>119</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>120</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>445</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>121</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>449</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>122</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>452</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>123</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>453</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>457</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>125</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>461</v>
-      </c>
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>126</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>464</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>470</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>474</v>
-      </c>
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>478</v>
-      </c>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>132</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>486</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>133</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>490</v>
-      </c>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>134</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>493</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>135</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>497</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>136</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>501</v>
-      </c>
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>137</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>505</v>
-      </c>
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>138</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>509</v>
-      </c>
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>139</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>513</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>140</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>141</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>520</v>
-      </c>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>142</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>524</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>143</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>144</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>145</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>534</v>
-      </c>
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>146</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>538</v>
-      </c>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>147</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>542</v>
-      </c>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>148</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>546</v>
-      </c>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>149</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>550</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>150</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>553</v>
-      </c>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>151</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>556</v>
-      </c>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>152</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>560</v>
-      </c>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>153</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>563</v>
-      </c>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>154</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>567</v>
-      </c>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>155</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>571</v>
-      </c>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>156</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>575</v>
-      </c>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>157</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>579</v>
-      </c>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>158</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>583</v>
-      </c>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>159</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>587</v>
-      </c>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>160</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>590</v>
-      </c>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>161</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>594</v>
-      </c>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>162</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>598</v>
-      </c>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>163</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>601</v>
-      </c>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>164</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>604</v>
-      </c>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>165</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>608</v>
-      </c>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>166</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>611</v>
-      </c>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>167</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>615</v>
-      </c>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>168</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>618</v>
-      </c>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>169</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>622</v>
-      </c>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>170</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>626</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>171</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>172</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>173</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>637</v>
-      </c>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>174</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>641</v>
-      </c>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>175</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>644</v>
-      </c>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>176</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>647</v>
-      </c>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>177</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>651</v>
-      </c>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>178</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>654</v>
-      </c>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>179</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>180</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>181</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>663</v>
-      </c>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>182</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>666</v>
-      </c>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>183</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>184</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>672</v>
-      </c>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>185</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>676</v>
-      </c>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>186</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>679</v>
-      </c>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>187</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>683</v>
-      </c>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>188</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>686</v>
-      </c>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>189</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>690</v>
-      </c>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>190</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>694</v>
-      </c>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>191</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>698</v>
-      </c>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>192</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>702</v>
-      </c>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>193</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>706</v>
-      </c>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>194</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>709</v>
-      </c>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>195</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>712</v>
-      </c>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>196</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>716</v>
-      </c>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>197</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>720</v>
-      </c>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>198</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>724</v>
-      </c>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>199</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>728</v>
-      </c>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>200</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>731</v>
-      </c>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>201</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>735</v>
-      </c>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>202</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>738</v>
-      </c>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>203</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>741</v>
-      </c>
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>204</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>745</v>
-      </c>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>205</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>749</v>
-      </c>
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>206</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>753</v>
-      </c>
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>207</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>757</v>
-      </c>
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>208</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>761</v>
-      </c>
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>209</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>764</v>
-      </c>
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>210</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>768</v>
-      </c>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
-        <v>211</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
-        <v>212</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>775</v>
-      </c>
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
-        <v>213</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>779</v>
-      </c>
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
-        <v>214</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>783</v>
-      </c>
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
-        <v>215</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>786</v>
-      </c>
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
-        <v>216</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>789</v>
-      </c>
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>217</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>792</v>
-      </c>
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
-        <v>218</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>795</v>
-      </c>
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>219</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>799</v>
-      </c>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
-        <v>220</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>802</v>
-      </c>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
-        <v>221</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>806</v>
-      </c>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>222</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>809</v>
-      </c>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
-        <v>223</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>813</v>
-      </c>
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>224</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>816</v>
-      </c>
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
-        <v>225</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>819</v>
-      </c>
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
-        <v>226</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>823</v>
-      </c>
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
-        <v>227</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>826</v>
-      </c>
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
-        <v>228</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>829</v>
-      </c>
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
-        <v>229</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>833</v>
-      </c>
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
-        <v>230</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>837</v>
-      </c>
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>231</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>840</v>
-      </c>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>232</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>843</v>
-      </c>
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>233</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>846</v>
-      </c>
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>234</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>850</v>
-      </c>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>235</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>853</v>
-      </c>
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
-        <v>236</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>856</v>
-      </c>
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>237</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>859</v>
-      </c>
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
-        <v>238</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>863</v>
-      </c>
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>239</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>867</v>
-      </c>
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>240</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>871</v>
-      </c>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
-        <v>241</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>874</v>
-      </c>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
-        <v>242</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>877</v>
-      </c>
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
-        <v>243</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>880</v>
-      </c>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
-        <v>244</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>884</v>
-      </c>
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
-        <v>245</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>888</v>
-      </c>
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
-        <v>246</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>686</v>
-      </c>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
-        <v>247</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
-        <v>248</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>897</v>
-      </c>
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
-        <v>249</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>901</v>
-      </c>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
-        <v>250</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>904</v>
-      </c>
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
-        <v>251</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>907</v>
-      </c>
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
-        <v>252</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>490</v>
-      </c>
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
-        <v>253</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>914</v>
-      </c>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
-        <v>254</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>918</v>
-      </c>
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
-        <v>255</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>922</v>
-      </c>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
-        <v>256</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>926</v>
-      </c>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
-        <v>257</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>930</v>
-      </c>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>258</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>933</v>
-      </c>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
-        <v>259</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>937</v>
-      </c>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
-        <v>260</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>941</v>
-      </c>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
-        <v>261</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>944</v>
-      </c>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
-        <v>262</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>947</v>
-      </c>
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
-        <v>263</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
-        <v>264</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
-        <v>265</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>955</v>
-      </c>
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
-        <v>266</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>958</v>
-      </c>
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
-        <v>267</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>962</v>
-      </c>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
-        <v>268</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>965</v>
-      </c>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
-        <v>269</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>968</v>
-      </c>
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
-        <v>270</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>971</v>
-      </c>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
-        <v>271</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>975</v>
-      </c>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
-        <v>272</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>979</v>
-      </c>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
-        <v>273</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>983</v>
-      </c>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
-        <v>274</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>986</v>
-      </c>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
-        <v>275</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>989</v>
-      </c>
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
-        <v>276</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>783</v>
-      </c>
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
-        <v>277</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>884</v>
-      </c>
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
-        <v>278</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>997</v>
-      </c>
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
-        <v>279</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>486</v>
-      </c>
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
-        <v>280</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>1003</v>
-      </c>
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
-        <v>281</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>1006</v>
-      </c>
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
-        <v>282</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>1010</v>
-      </c>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
-        <v>283</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>1013</v>
-      </c>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
-        <v>284</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>1017</v>
-      </c>
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
-        <v>285</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>1021</v>
-      </c>
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
-        <v>286</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>1025</v>
-      </c>
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
-        <v>287</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>1028</v>
-      </c>
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
-        <v>288</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
-        <v>289</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>1035</v>
-      </c>
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
-        <v>290</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>1039</v>
-      </c>
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
-        <v>291</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>1042</v>
-      </c>
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
-        <v>292</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
-        <v>293</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>1049</v>
-      </c>
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
-        <v>294</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>1053</v>
-      </c>
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
-        <v>295</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>1056</v>
-      </c>
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
-        <v>296</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>1060</v>
-      </c>
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
-        <v>297</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>1063</v>
-      </c>
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
-        <v>298</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>1066</v>
-      </c>
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
-        <v>299</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
@@ -19421,7 +13284,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E175" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F55AAD6A-7889-4CF0-9B79-DDD38FB7CB77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/hr.xlsx
+++ b/src/main/resources/hr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Desktop\Automatic-Email-Sender-Hr\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B192B387-A021-4743-A7D3-7B0E560F1F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05E30EC-029D-4289-A28A-9932E12FC44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SNo</t>
   </si>
@@ -35,18 +35,6 @@
   </si>
   <si>
     <t>Company</t>
-  </si>
-  <si>
-    <t>Associate Vice President Human Resources</t>
-  </si>
-  <si>
-    <t>Chandu</t>
-  </si>
-  <si>
-    <t>chanduraparthi1@gmail.com</t>
-  </si>
-  <si>
-    <t>XSS</t>
   </si>
 </sst>
 </file>
@@ -356,7 +344,7 @@
   <dimension ref="A1:E1843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -379,21 +367,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -13283,9 +13261,6 @@
       <c r="E1843" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F55AAD6A-7889-4CF0-9B79-DDD38FB7CB77}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/hr.xlsx
+++ b/src/main/resources/hr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Desktop\Automatic-Email-Sender-Hr\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05E30EC-029D-4289-A28A-9932E12FC44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B9B39-A90D-472D-9C00-F28569884C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SNo</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>Chandu</t>
+  </si>
+  <si>
+    <t>chanduraparthi@gmai.com</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -344,7 +356,7 @@
   <dimension ref="A1:E1843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -367,11 +379,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -13261,6 +13283,9 @@
       <c r="E1843" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A199B217-ABF2-48FB-8443-0D257BC598A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>